--- a/biology/Zoologie/Corse_(race_ovine)/Corse_(race_ovine).xlsx
+++ b/biology/Zoologie/Corse_(race_ovine)/Corse_(race_ovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le corse est une race ovine autochtone et originaire de la Corse. Son effectif est évalué à environ 110 000 têtes dont 90 000 reproductrices en 2005[1].
-Le corse fait partie, comme le sarde, des « races jarreuses méditerranéennes »[2]. Son origine est très ancienne. Elle a été façonnée au cours des siècles par des conditions de climat et d'élevage pastoral très spécifiques. La brebis corse est une composante essentielle de cette agriculture vivrière de montagne grâce à sa rusticité et ses aptitudes mixtes en lait, viande et laine. À partir de la fin du XIXe siècle, l'arrivée des industriels laitiers de Roquefort sur l'île bouleverse cette économie et « fait passer progressivement ses éleveurs à l'ère industrielle »[3].
+Le corse est une race ovine autochtone et originaire de la Corse. Son effectif est évalué à environ 110 000 têtes dont 90 000 reproductrices en 2005.
+Le corse fait partie, comme le sarde, des « races jarreuses méditerranéennes ». Son origine est très ancienne. Elle a été façonnée au cours des siècles par des conditions de climat et d'élevage pastoral très spécifiques. La brebis corse est une composante essentielle de cette agriculture vivrière de montagne grâce à sa rusticité et ses aptitudes mixtes en lait, viande et laine. À partir de la fin du XIXe siècle, l'arrivée des industriels laitiers de Roquefort sur l'île bouleverse cette économie et « fait passer progressivement ses éleveurs à l'ère industrielle ».
 Elle est essentiellement élevée pour son lait aux qualités fromagères servant à élaborer les fromages fermiers de Corse : brocciu, calinzanincu, fourme d'Asco, niolo, U Muntagnolu et venaco.
 </t>
         </is>
